--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,7 +773,7 @@
       <c r="H7" s="2" t="n">
         <v>45981.26364583334</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J7" t="inlineStr">
@@ -1171,7 +1171,7 @@
       <c r="H16" s="2" t="n">
         <v>45981.53131944445</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J16" t="inlineStr">
@@ -1179,10 +1179,8 @@
           <t>12:45:06</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K16" t="n">
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1231,7 +1229,7 @@
       <c r="H17" s="2" t="n">
         <v>45981.46748842593</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J17" t="inlineStr">
@@ -1239,10 +1237,8 @@
           <t>11:13:11</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K17" t="n">
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1291,7 +1287,7 @@
       <c r="H18" s="2" t="n">
         <v>45984.98431712963</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="2" t="n">
         <v>45984</v>
       </c>
       <c r="J18" t="inlineStr">
@@ -1299,10 +1295,8 @@
           <t>23:37:25</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K18" t="n">
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1351,7 +1345,7 @@
       <c r="H19" s="2" t="n">
         <v>45982.97696759259</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J19" t="inlineStr">
@@ -1359,10 +1353,8 @@
           <t>23:26:50</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K19" t="n">
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1411,7 +1403,7 @@
       <c r="H20" s="2" t="n">
         <v>45982.26106481482</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J20" t="inlineStr">
@@ -1419,10 +1411,8 @@
           <t>06:15:56</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K20" t="n">
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1471,7 +1461,7 @@
       <c r="H21" s="2" t="n">
         <v>45980.89395833333</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="2" t="n">
         <v>45980</v>
       </c>
       <c r="J21" t="inlineStr">
@@ -1479,10 +1469,8 @@
           <t>21:27:18</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K21" t="n">
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1531,7 +1519,7 @@
       <c r="H22" s="2" t="n">
         <v>45983.62855324074</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="J22" t="inlineStr">
@@ -1539,10 +1527,8 @@
           <t>15:05:07</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K22" t="n">
+        <v>1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1809,6 +1795,1578 @@
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>24</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff94kdK/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff94kdK/</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>🥰 Que lindo que no es IA</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1763784064</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>45983.16740740741</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>45983</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>04:01:04</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSff94kdK/', 'input': 'https://vt.tiktok.com/ZSff94kdK/', 'cid': '7575394784510427922', 'createTime': 1763784064, 'createTimeISO': '2025-11-22T04:01:04.000Z', 'text': '🥰 Que lindo que no es IA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7061039853035422725', 'uniqueId': 'salomg88', 'avatarThumbnail':</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>24</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff94kdK/</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff94kdK/</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>por qué no explica qué clase de mascarilla de vino hacer cómo se prepara qué ingredientes le hecho</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1763776456</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>45983.07935185185</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>45983</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>01:54:16</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSff94kdK/', 'input': 'https://vt.tiktok.com/ZSff94kdK/', 'cid': '7575362101340324626', 'createTime': 1763776456, 'createTimeISO': '2025-11-22T01:54:16.000Z', 'text': 'por qué no explica qué clase de mascarilla de vino hacer cómo se prepara qué ingredientes le hecho', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>24</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff94kdK/</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff94kdK/</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ese es el mapa al one piece?</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1763775782</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>45983.07155092592</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>45983</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>01:43:02</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSff94kdK/', 'input': 'https://vt.tiktok.com/ZSff94kdK/', 'cid': '7575359261501408018', 'createTime': 1763775782, 'createTimeISO': '2025-11-22T01:43:02.000Z', 'text': 'ese es el mapa al one piece?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7178493082228442117', 'uniqueId': 'akeshiroblox', 'avatarThu</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>24</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff94kdK/</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff94kdK/</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Me gusta que no es IA</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1763765325</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>45982.95052083334</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>45982</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>22:48:45</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSff94kdK/', 'input': 'https://vt.tiktok.com/ZSff94kdK/', 'cid': '7575314301649797906', 'createTime': 1763765325, 'createTimeISO': '2025-11-21T22:48:45.000Z', 'text': 'Me gusta que no es IA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7476626177487537207', 'uniqueId': '320330.tati', 'avatarThumbnail':</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>24</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff94kdK/</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff94kdK/</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Bendiciones 🥰</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1763753731</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>45982.81633101852</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>45982</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>19:35:31</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSff94kdK/', 'input': 'https://vt.tiktok.com/ZSff94kdK/', 'cid': '7575264519527105300', 'createTime': 1763753731, 'createTimeISO': '2025-11-21T19:35:31.000Z', 'text': 'Bendiciones 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7392723576502043654', 'uniqueId': 'ana01552', 'avatarThumbnail': 'https://p</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>24</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff94kdK/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff94kdK/</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Que bello video gracias Alpina😊</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1763750972</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>45982.78439814815</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>45982</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>18:49:32</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSff94kdK/', 'input': 'https://vt.tiktok.com/ZSff94kdK/', 'cid': '7575251936485180178', 'createTime': 1763750972, 'createTimeISO': '2025-11-21T18:49:32.000Z', 'text': 'Que bello video gracias Alpina😊', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7520408854468035602', 'uniqueId': 'cladyslopez', 'avatarT</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>24</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff94kdK/</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff94kdK/</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>☺️☺️😊</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1763736191</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>45982.61332175926</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>45982</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>14:43:11</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSff94kdK/', 'input': 'https://vt.tiktok.com/ZSff94kdK/', 'cid': '7575188600700011271', 'createTime': 1763736191, 'createTimeISO': '2025-11-21T14:43:11.000Z', 'text': '☺️☺️😊', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7417587759336457222', 'uniqueId': 'user72252409201730', 'avatarThumbnail': 'https:/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>24</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff94kdK/</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff94kdK/</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1763613848</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>45981.19731481482</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>45981</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>04:44:08</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSff94kdK/', 'input': 'https://vt.tiktok.com/ZSff94kdK/', 'cid': '7574663024414688001', 'createTime': 1763613848, 'createTimeISO': '2025-11-20T04:44:08.000Z', 'text': '6', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7515116442964198418', 'uniqueId': 'excelmerysalazara', 'avatarThumbnail': 'https://p16-</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>25</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff9Uwkr/</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff9Uwkr/</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>por qué no explica qué clase de mascarilla de vino hacer cómo se prepara qué ingredientes le hecho</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1763776456</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>45983.07935185185</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>45983</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>01:54:16</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSff9Uwkr/', 'input': 'https://vt.tiktok.com/ZSff9Uwkr/', 'cid': '7575362101340324626', 'createTime': 1763776456, 'createTimeISO': '2025-11-22T01:54:16.000Z', 'text': 'por qué no explica qué clase de mascarilla de vino hacer cómo se prepara qué ingredientes le hecho', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>25</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff9Uwkr/</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff9Uwkr/</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>ese es el mapa al one piece?</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1763775782</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>45983.07155092592</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>45983</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>01:43:02</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSff9Uwkr/', 'input': 'https://vt.tiktok.com/ZSff9Uwkr/', 'cid': '7575359261501408018', 'createTime': 1763775782, 'createTimeISO': '2025-11-22T01:43:02.000Z', 'text': 'ese es el mapa al one piece?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7178493082228442117', 'uniqueId': 'akeshiroblox', 'avatarThu</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>25</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff9Uwkr/</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff9Uwkr/</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Me gusta que no es IA</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1763765325</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>45982.95052083334</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>45982</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>22:48:45</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSff9Uwkr/', 'input': 'https://vt.tiktok.com/ZSff9Uwkr/', 'cid': '7575314301649797906', 'createTime': 1763765325, 'createTimeISO': '2025-11-21T22:48:45.000Z', 'text': 'Me gusta que no es IA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7476626177487537207', 'uniqueId': '320330.tati', 'avatarThumbnail':</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>25</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff9Uwkr/</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff9Uwkr/</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Bendiciones 🥰</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1763753731</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>45982.81633101852</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>45982</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>19:35:31</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSff9Uwkr/', 'input': 'https://vt.tiktok.com/ZSff9Uwkr/', 'cid': '7575264519527105300', 'createTime': 1763753731, 'createTimeISO': '2025-11-21T19:35:31.000Z', 'text': 'Bendiciones 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7392723576502043654', 'uniqueId': 'ana01552', 'avatarThumbnail': 'https://p</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>25</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff9Uwkr/</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff9Uwkr/</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Que bello video gracias Alpina😊</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1763750972</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>45982.78439814815</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>45982</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>18:49:32</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSff9Uwkr/', 'input': 'https://vt.tiktok.com/ZSff9Uwkr/', 'cid': '7575251936485180178', 'createTime': 1763750972, 'createTimeISO': '2025-11-21T18:49:32.000Z', 'text': 'Que bello video gracias Alpina😊', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7520408854468035602', 'uniqueId': 'cladyslopez', 'avatarT</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>25</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff9Uwkr/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff9Uwkr/</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>☺️☺️😊</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1763736191</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>45982.61332175926</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>45982</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>14:43:11</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSff9Uwkr/', 'input': 'https://vt.tiktok.com/ZSff9Uwkr/', 'cid': '7575188600700011271', 'createTime': 1763736191, 'createTimeISO': '2025-11-21T14:43:11.000Z', 'text': '☺️☺️😊', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7417587759336457222', 'uniqueId': 'user72252409201730', 'avatarThumbnail': 'https:/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>25</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff9Uwkr/</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff9Uwkr/</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1763613848</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>45981.19731481482</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>45981</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>04:44:08</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574526148311289096', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSff9Uwkr/', 'input': 'https://vt.tiktok.com/ZSff9Uwkr/', 'cid': '7574663024414688001', 'createTime': 1763613848, 'createTimeISO': '2025-11-20T04:44:08.000Z', 'text': '6', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7515116442964198418', 'uniqueId': 'excelmerysalazara', 'avatarThumbnail': 'https://p16-</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>26</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid036iaCTpHgEiiR2DT4ZQ8FoZtCogRjyg3nAXxtVXh3XXRdduTJDg4fThnwZ742KgvPl/</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid036iaCTpHgEiiR2DT4ZQ8FoZtCogRjyg3nAXxtVXh3XXRdduTJDg4fThnwZ742KgvPl/</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Listo</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2025-11-20T12:45:06.000Z</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>45981.53131944445</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>45981</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>12:45:06</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid036iaCTpHgEiiR2DT4ZQ8FoZtCogRjyg3nAXxtVXh3XXRdduTJDg4fThnwZ742KgvPl/', 'commentUrl': 'https://www.facebook.com/reel/2001022834075363/?comment_id=1011405657841959', 'id': 'Y29tbWVudDoxMjc5NzgxMDMwODYwODAwXzEwMTE0MDU2NTc4NDE5NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI3OTc4MTAzMDg2MDgwMF8xMDExNDA1NjU3ODQxOTU5', 'date': '2025-11-20T12:45:06.000Z', 'text': 'Listo', 'profileUrl': 'https://www.facebook.com/esperanza.londono.35325', 'profile</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>26</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid036iaCTpHgEiiR2DT4ZQ8FoZtCogRjyg3nAXxtVXh3XXRdduTJDg4fThnwZ742KgvPl/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid036iaCTpHgEiiR2DT4ZQ8FoZtCogRjyg3nAXxtVXh3XXRdduTJDg4fThnwZ742KgvPl/</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ZAMBRANO UNA  VERGUENSA!!! APROVECHADO Y AMBICIOSO!! Q PENA!!!!</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2025-11-20T11:13:11.000Z</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>45981.46748842593</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>45981</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>11:13:11</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid036iaCTpHgEiiR2DT4ZQ8FoZtCogRjyg3nAXxtVXh3XXRdduTJDg4fThnwZ742KgvPl/', 'commentUrl': 'https://www.facebook.com/reel/2001022834075363/?comment_id=1201407255170646', 'id': 'Y29tbWVudDoxMjc5NzgxMDMwODYwODAwXzEyMDE0MDcyNTUxNzA2NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI3OTc4MTAzMDg2MDgwMF8xMjAxNDA3MjU1MTcwNjQ2', 'date': '2025-11-20T11:13:11.000Z', 'text': 'ZAMBRANO UNA  VERGUENSA!!! APROVECHADO Y AMBICIOSO!! Q PENA!!!!', 'profileUrl': 'h</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>27</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02qLKsWnTscnt4fxoxbp2H8DLmNMVurZcBpUBuwZEZzTwyX1YkYmYENbHa5UHu6Dg8l/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02qLKsWnTscnt4fxoxbp2H8DLmNMVurZcBpUBuwZEZzTwyX1YkYmYENbHa5UHu6Dg8l/</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Pp099p99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2025-11-23T23:37:25.000Z</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>45984.98431712963</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>45984</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>23:37:25</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02qLKsWnTscnt4fxoxbp2H8DLmNMVurZcBpUBuwZEZzTwyX1YkYmYENbHa5UHu6Dg8l/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02eoWzQNzHoYKoC98YGYQmLBqznN2TMr5HX4ynYsYVThQemN3AJ7CW8VMq65vm1JcZl?comment_id=1631648168208831', 'id': 'Y29tbWVudDoxMjc5Nzc0NDQ0MTk0NzkyXzE2MzE2NDgxNjgyMDg4MzE=', 'feedbackId': 'ZmVlZGJhY2s6MTI3OTc3NDQ0NDE5NDc5Ml8xNjMxNjQ4MTY4MjA4ODMx', 'date': '2025-11-23T23:37:25.000Z', 'text': 'Pp0⁹9p9⁹', 'profile</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>27</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02qLKsWnTscnt4fxoxbp2H8DLmNMVurZcBpUBuwZEZzTwyX1YkYmYENbHa5UHu6Dg8l/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02qLKsWnTscnt4fxoxbp2H8DLmNMVurZcBpUBuwZEZzTwyX1YkYmYENbHa5UHu6Dg8l/</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Hola te ves bn tienes buena imagen personal.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2025-11-21T23:26:50.000Z</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>45982.97696759259</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>45982</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>23:26:50</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02qLKsWnTscnt4fxoxbp2H8DLmNMVurZcBpUBuwZEZzTwyX1YkYmYENbHa5UHu6Dg8l/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02eoWzQNzHoYKoC98YGYQmLBqznN2TMr5HX4ynYsYVThQemN3AJ7CW8VMq65vm1JcZl?comment_id=848516504333779', 'id': 'Y29tbWVudDoxMjc5Nzc0NDQ0MTk0NzkyXzg0ODUxNjUwNDMzMzc3OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI3OTc3NDQ0NDE5NDc5Ml84NDg1MTY1MDQzMzM3Nzk=', 'date': '2025-11-21T23:26:50.000Z', 'text': 'Hola te ves bn tiene</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>27</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02qLKsWnTscnt4fxoxbp2H8DLmNMVurZcBpUBuwZEZzTwyX1YkYmYENbHa5UHu6Dg8l/</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02qLKsWnTscnt4fxoxbp2H8DLmNMVurZcBpUBuwZEZzTwyX1YkYmYENbHa5UHu6Dg8l/</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Tinga linga linga tinga linga tuuuuu</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2025-11-21T06:15:56.000Z</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>45982.26106481482</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>45982</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>06:15:56</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02qLKsWnTscnt4fxoxbp2H8DLmNMVurZcBpUBuwZEZzTwyX1YkYmYENbHa5UHu6Dg8l/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02eoWzQNzHoYKoC98YGYQmLBqznN2TMr5HX4ynYsYVThQemN3AJ7CW8VMq65vm1JcZl?comment_id=789278630809884', 'id': 'Y29tbWVudDoxMjc5Nzc0NDQ0MTk0NzkyXzc4OTI3ODYzMDgwOTg4NA==', 'feedbackId': 'ZmVlZGJhY2s6MTI3OTc3NDQ0NDE5NDc5Ml83ODkyNzg2MzA4MDk4ODQ=', 'date': '2025-11-21T06:15:56.000Z', 'text': 'Tinga linga linga ti</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>27</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02qLKsWnTscnt4fxoxbp2H8DLmNMVurZcBpUBuwZEZzTwyX1YkYmYENbHa5UHu6Dg8l/</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02qLKsWnTscnt4fxoxbp2H8DLmNMVurZcBpUBuwZEZzTwyX1YkYmYENbHa5UHu6Dg8l/</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Yamen l al policía para k les quiten los perritos</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2025-11-19T21:27:18.000Z</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>45980.89395833333</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>45980</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>21:27:18</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02qLKsWnTscnt4fxoxbp2H8DLmNMVurZcBpUBuwZEZzTwyX1YkYmYENbHa5UHu6Dg8l/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02eoWzQNzHoYKoC98YGYQmLBqznN2TMr5HX4ynYsYVThQemN3AJ7CW8VMq65vm1JcZl?comment_id=703351456156856', 'id': 'Y29tbWVudDoxMjc5Nzc0NDQ0MTk0NzkyXzcwMzM1MTQ1NjE1Njg1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI3OTc3NDQ0NDE5NDc5Ml83MDMzNTE0NTYxNTY4NTY=', 'date': '2025-11-19T21:27:18.000Z', 'text': 'Yamen l al policía p</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>28</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0LeWbxMybLesL4pNRZhEKm3pYG5oowWdQALMA31EbTfSHWnwHHvJhsU2juUihmVSzl/</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0LeWbxMybLesL4pNRZhEKm3pYG5oowWdQALMA31EbTfSHWnwHHvJhsU2juUihmVSzl/</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Una delicia 😋😋😋</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2025-11-22T15:05:07.000Z</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>45983.62855324074</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>45983</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>15:05:07</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0LeWbxMybLesL4pNRZhEKm3pYG5oowWdQALMA31EbTfSHWnwHHvJhsU2juUihmVSzl/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02GmegCxqNxBuRcSCkMdKMY1Y4XfUr4qzhPetXLiVTTMoYrJDVvSaNFsoneQgoNomfl?comment_id=1407146594299867', 'id': 'Y29tbWVudDoxMjc5Nzc0ODA0MTk0NzU2XzE0MDcxNDY1OTQyOTk4Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTI3OTc3NDgwNDE5NDc1Nl8xNDA3MTQ2NTk0Mjk5ODY3', 'date': '2025-11-22T15:05:07.000Z', 'text': 'Una delicia 😋😋😋', 'p</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>29</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid055nF8LydH4eWguMQMRr1Kdwq3ddGwh5Jf7JK87wVUSYatFCzWyFUVJbWJJUDwLp9l/</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid055nF8LydH4eWguMQMRr1Kdwq3ddGwh5Jf7JK87wVUSYatFCzWyFUVJbWJJUDwLp9l/</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>30</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02NrPuBhWcsD7zB7aYQ2jtyL8nwfCWzCDh3L3JX4cRQChHfurYzZbPzGAgF785WH5Nl/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02NrPuBhWcsD7zB7aYQ2jtyL8nwfCWzCDh3L3JX4cRQChHfurYzZbPzGAgF785WH5Nl/</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>31</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0NHrRSzn9KmzNmpzHB9xhbrZaPXAUeb99T5eMFzYYgNTjQqc2g3iBQBDfKU23e2CTl/</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0NHrRSzn9KmzNmpzHB9xhbrZaPXAUeb99T5eMFzYYgNTjQqc2g3iBQBDfKU23e2CTl/</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>32</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Fwp9vnRVHbB5xXkvgh5toXfvm3o4WL5EczA6JeR66dBgzoyCnRWA14pi3uFzCvxWl/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Fwp9vnRVHbB5xXkvgh5toXfvm3o4WL5EczA6JeR66dBgzoyCnRWA14pi3uFzCvxWl/</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>33</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0Q63DD7A39d7WYjVhqtkfCxK991F6up6EN5taL4r3adQcyhKmjZEy9usTGCCYV7LNl/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0Q63DD7A39d7WYjVhqtkfCxK991F6up6EN5taL4r3adQcyhKmjZEy9usTGCCYV7LNl/</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>34</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid036aPBd5xnHdSJzD384meC2rwYSe921pjUcHZA8cA9h4GSLdyspqzDd7E6c8ny7wm2l/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid036aPBd5xnHdSJzD384meC2rwYSe921pjUcHZA8cA9h4GSLdyspqzDd7E6c8ny7wm2l/</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1821,7 +3379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2410,6 +3968,279 @@
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff94kdK/</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45981.19731481482</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>45983.16740740741</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSff9Uwkr/</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>45981.19731481482</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>45983.07935185185</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid036iaCTpHgEiiR2DT4ZQ8FoZtCogRjyg3nAXxtVXh3XXRdduTJDg4fThnwZ742KgvPl/</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>45981.46748842593</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>45981.53131944445</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02qLKsWnTscnt4fxoxbp2H8DLmNMVurZcBpUBuwZEZzTwyX1YkYmYENbHa5UHu6Dg8l/</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>45980.89395833333</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>45984.98431712963</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0LeWbxMybLesL4pNRZhEKm3pYG5oowWdQALMA31EbTfSHWnwHHvJhsU2juUihmVSzl/</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>45983.62855324074</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>45983.62855324074</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid055nF8LydH4eWguMQMRr1Kdwq3ddGwh5Jf7JK87wVUSYatFCzWyFUVJbWJJUDwLp9l/</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02NrPuBhWcsD7zB7aYQ2jtyL8nwfCWzCDh3L3JX4cRQChHfurYzZbPzGAgF785WH5Nl/</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0NHrRSzn9KmzNmpzHB9xhbrZaPXAUeb99T5eMFzYYgNTjQqc2g3iBQBDfKU23e2CTl/</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Fwp9vnRVHbB5xXkvgh5toXfvm3o4WL5EczA6JeR66dBgzoyCnRWA14pi3uFzCvxWl/</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0Q63DD7A39d7WYjVhqtkfCxK991F6up6EN5taL4r3adQcyhKmjZEy9usTGCCYV7LNl/</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid036aPBd5xnHdSJzD384meC2rwYSe921pjUcHZA8cA9h4GSLdyspqzDd7E6c8ny7wm2l/</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2422,7 +4253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2464,16 +4295,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
         <v>0.29</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2493,6 +4324,25 @@
       </c>
       <c r="E3" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2685,7 +4535,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid055nF8LydH4eWguMQMRr1Kdwq3ddGwh5Jf7JK87wVUSYatFCzWyFUVJbWJJUDwLp9l?dco_ad_id=120238433999840589</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid055nF8LydH4eWguMQMRr1Kdwq3ddGwh5Jf7JK87wVUSYatFCzWyFUVJbWJJUDwLp9l/</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2697,7 +4547,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02NrPuBhWcsD7zB7aYQ2jtyL8nwfCWzCDh3L3JX4cRQChHfurYzZbPzGAgF785WH5Nl?dco_ad_id=120238433999830589</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02NrPuBhWcsD7zB7aYQ2jtyL8nwfCWzCDh3L3JX4cRQChHfurYzZbPzGAgF785WH5Nl/</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2709,7 +4559,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0NHrRSzn9KmzNmpzHB9xhbrZaPXAUeb99T5eMFzYYgNTjQqc2g3iBQBDfKU23e2CTl?dco_ad_id=120235785882930379</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0NHrRSzn9KmzNmpzHB9xhbrZaPXAUeb99T5eMFzYYgNTjQqc2g3iBQBDfKU23e2CTl/</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2721,7 +4571,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02Fwp9vnRVHbB5xXkvgh5toXfvm3o4WL5EczA6JeR66dBgzoyCnRWA14pi3uFzCvxWl?dco_ad_id=120235786364350379</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Fwp9vnRVHbB5xXkvgh5toXfvm3o4WL5EczA6JeR66dBgzoyCnRWA14pi3uFzCvxWl/</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2733,7 +4583,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0Q63DD7A39d7WYjVhqtkfCxK991F6up6EN5taL4r3adQcyhKmjZEy9usTGCCYV7LNl?dco_ad_id=120235786078250379</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0Q63DD7A39d7WYjVhqtkfCxK991F6up6EN5taL4r3adQcyhKmjZEy9usTGCCYV7LNl/</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2745,7 +4595,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid036aPBd5xnHdSJzD384meC2rwYSe921pjUcHZA8cA9h4GSLdyspqzDd7E6c8ny7wm2l?dco_ad_id=120235785505590379</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid036aPBd5xnHdSJzD384meC2rwYSe921pjUcHZA8cA9h4GSLdyspqzDd7E6c8ny7wm2l/</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2802,10 +4652,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>19</v>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -20,11 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -64,13 +62,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2559,7 +2556,7 @@
       <c r="H43" s="2" t="n">
         <v>45983.16740740741</v>
       </c>
-      <c r="I43" s="3" t="n">
+      <c r="I43" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="J43" t="inlineStr">
@@ -2619,7 +2616,7 @@
       <c r="H44" s="2" t="n">
         <v>45983.07935185185</v>
       </c>
-      <c r="I44" s="3" t="n">
+      <c r="I44" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="J44" t="inlineStr">
@@ -2679,7 +2676,7 @@
       <c r="H45" s="2" t="n">
         <v>45983.07155092592</v>
       </c>
-      <c r="I45" s="3" t="n">
+      <c r="I45" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="J45" t="inlineStr">
@@ -2739,7 +2736,7 @@
       <c r="H46" s="2" t="n">
         <v>45982.95052083334</v>
       </c>
-      <c r="I46" s="3" t="n">
+      <c r="I46" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J46" t="inlineStr">
@@ -2799,7 +2796,7 @@
       <c r="H47" s="2" t="n">
         <v>45982.81633101852</v>
       </c>
-      <c r="I47" s="3" t="n">
+      <c r="I47" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J47" t="inlineStr">
@@ -2859,7 +2856,7 @@
       <c r="H48" s="2" t="n">
         <v>45982.78439814815</v>
       </c>
-      <c r="I48" s="3" t="n">
+      <c r="I48" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J48" t="inlineStr">
@@ -2919,7 +2916,7 @@
       <c r="H49" s="2" t="n">
         <v>45982.61332175926</v>
       </c>
-      <c r="I49" s="3" t="n">
+      <c r="I49" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J49" t="inlineStr">
@@ -2979,7 +2976,7 @@
       <c r="H50" s="2" t="n">
         <v>45981.19731481482</v>
       </c>
-      <c r="I50" s="3" t="n">
+      <c r="I50" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J50" t="inlineStr">
@@ -3041,7 +3038,7 @@
       <c r="H51" s="2" t="n">
         <v>45981.53131944445</v>
       </c>
-      <c r="I51" s="3" t="n">
+      <c r="I51" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J51" t="inlineStr">
@@ -3049,10 +3046,8 @@
           <t>12:45:06</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K51" t="n">
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -3101,7 +3096,7 @@
       <c r="H52" s="2" t="n">
         <v>45981.46748842593</v>
       </c>
-      <c r="I52" s="3" t="n">
+      <c r="I52" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J52" t="inlineStr">
@@ -3109,10 +3104,8 @@
           <t>11:13:11</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K52" t="n">
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -3161,7 +3154,7 @@
       <c r="H53" s="2" t="n">
         <v>45984.98431712963</v>
       </c>
-      <c r="I53" s="3" t="n">
+      <c r="I53" s="2" t="n">
         <v>45984</v>
       </c>
       <c r="J53" t="inlineStr">
@@ -3169,10 +3162,8 @@
           <t>23:37:25</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K53" t="n">
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3221,7 +3212,7 @@
       <c r="H54" s="2" t="n">
         <v>45982.97696759259</v>
       </c>
-      <c r="I54" s="3" t="n">
+      <c r="I54" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J54" t="inlineStr">
@@ -3229,10 +3220,8 @@
           <t>23:26:50</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K54" t="n">
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -3281,7 +3270,7 @@
       <c r="H55" s="2" t="n">
         <v>45982.26106481482</v>
       </c>
-      <c r="I55" s="3" t="n">
+      <c r="I55" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J55" t="inlineStr">
@@ -3289,10 +3278,8 @@
           <t>06:15:56</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K55" t="n">
+        <v>1</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -3341,7 +3328,7 @@
       <c r="H56" s="2" t="n">
         <v>45980.89395833333</v>
       </c>
-      <c r="I56" s="3" t="n">
+      <c r="I56" s="2" t="n">
         <v>45980</v>
       </c>
       <c r="J56" t="inlineStr">
@@ -3349,10 +3336,8 @@
           <t>21:27:18</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K56" t="n">
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -3401,7 +3386,7 @@
       <c r="H57" s="2" t="n">
         <v>45983.62855324074</v>
       </c>
-      <c r="I57" s="3" t="n">
+      <c r="I57" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="J57" t="inlineStr">
@@ -3409,10 +3394,8 @@
           <t>15:05:07</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K57" t="n">
+        <v>1</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -20,11 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -64,13 +62,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -557,7 +554,7 @@
       <c r="H2" s="2" t="n">
         <v>45987.54113425926</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="2" t="n">
         <v>45987</v>
       </c>
       <c r="J2" t="inlineStr">
@@ -617,7 +614,7 @@
       <c r="H3" s="2" t="n">
         <v>45983.16740740741</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="J3" t="inlineStr">
@@ -677,7 +674,7 @@
       <c r="H4" s="2" t="n">
         <v>45983.07935185185</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="J4" t="inlineStr">
@@ -737,7 +734,7 @@
       <c r="H5" s="2" t="n">
         <v>45983.07155092592</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="J5" t="inlineStr">
@@ -797,7 +794,7 @@
       <c r="H6" s="2" t="n">
         <v>45982.95052083334</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J6" t="inlineStr">
@@ -857,7 +854,7 @@
       <c r="H7" s="2" t="n">
         <v>45982.81633101852</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J7" t="inlineStr">
@@ -917,7 +914,7 @@
       <c r="H8" s="2" t="n">
         <v>45982.78439814815</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J8" t="inlineStr">
@@ -977,7 +974,7 @@
       <c r="H9" s="2" t="n">
         <v>45982.61332175926</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J9" t="inlineStr">
@@ -1037,7 +1034,7 @@
       <c r="H10" s="2" t="n">
         <v>45981.19731481482</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J10" t="inlineStr">
@@ -1097,7 +1094,7 @@
       <c r="H11" s="2" t="n">
         <v>45987.54113425926</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="2" t="n">
         <v>45987</v>
       </c>
       <c r="J11" t="inlineStr">
@@ -1157,7 +1154,7 @@
       <c r="H12" s="2" t="n">
         <v>45983.16740740741</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="J12" t="inlineStr">
@@ -1217,7 +1214,7 @@
       <c r="H13" s="2" t="n">
         <v>45983.07935185185</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="J13" t="inlineStr">
@@ -1277,7 +1274,7 @@
       <c r="H14" s="2" t="n">
         <v>45983.07155092592</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="J14" t="inlineStr">
@@ -1337,7 +1334,7 @@
       <c r="H15" s="2" t="n">
         <v>45982.95052083334</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J15" t="inlineStr">
@@ -1397,7 +1394,7 @@
       <c r="H16" s="2" t="n">
         <v>45982.81633101852</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J16" t="inlineStr">
@@ -1457,7 +1454,7 @@
       <c r="H17" s="2" t="n">
         <v>45982.78439814815</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J17" t="inlineStr">
@@ -1517,7 +1514,7 @@
       <c r="H18" s="2" t="n">
         <v>45982.61332175926</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J18" t="inlineStr">
@@ -1577,7 +1574,7 @@
       <c r="H19" s="2" t="n">
         <v>45981.19731481482</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J19" t="inlineStr">
@@ -1853,7 +1850,7 @@
       <c r="H25" s="2" t="n">
         <v>45981.26364583334</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J25" t="inlineStr">
@@ -2251,7 +2248,7 @@
       <c r="H34" s="2" t="n">
         <v>45981.53131944445</v>
       </c>
-      <c r="I34" s="3" t="n">
+      <c r="I34" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J34" t="inlineStr">
@@ -2259,10 +2256,8 @@
           <t>12:45:06</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K34" t="n">
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2311,7 +2306,7 @@
       <c r="H35" s="2" t="n">
         <v>45981.46748842593</v>
       </c>
-      <c r="I35" s="3" t="n">
+      <c r="I35" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J35" t="inlineStr">
@@ -2319,10 +2314,8 @@
           <t>11:13:11</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K35" t="n">
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -2371,7 +2364,7 @@
       <c r="H36" s="2" t="n">
         <v>45984.98431712963</v>
       </c>
-      <c r="I36" s="3" t="n">
+      <c r="I36" s="2" t="n">
         <v>45984</v>
       </c>
       <c r="J36" t="inlineStr">
@@ -2379,10 +2372,8 @@
           <t>23:37:25</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K36" t="n">
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2431,7 +2422,7 @@
       <c r="H37" s="2" t="n">
         <v>45982.97696759259</v>
       </c>
-      <c r="I37" s="3" t="n">
+      <c r="I37" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J37" t="inlineStr">
@@ -2439,10 +2430,8 @@
           <t>23:26:50</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K37" t="n">
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2491,7 +2480,7 @@
       <c r="H38" s="2" t="n">
         <v>45982.26106481482</v>
       </c>
-      <c r="I38" s="3" t="n">
+      <c r="I38" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J38" t="inlineStr">
@@ -2499,10 +2488,8 @@
           <t>06:15:56</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K38" t="n">
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2551,7 +2538,7 @@
       <c r="H39" s="2" t="n">
         <v>45980.89395833333</v>
       </c>
-      <c r="I39" s="3" t="n">
+      <c r="I39" s="2" t="n">
         <v>45980</v>
       </c>
       <c r="J39" t="inlineStr">
@@ -2559,10 +2546,8 @@
           <t>21:27:18</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K39" t="n">
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2611,7 +2596,7 @@
       <c r="H40" s="2" t="n">
         <v>45983.62855324074</v>
       </c>
-      <c r="I40" s="3" t="n">
+      <c r="I40" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="J40" t="inlineStr">
@@ -2619,10 +2604,8 @@
           <t>15:05:07</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K40" t="n">
+        <v>1</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
